--- a/backend/testerAPI/test_scores_upload.xlsx
+++ b/backend/testerAPI/test_scores_upload.xlsx
@@ -19,13 +19,13 @@
     <t>Kelas</t>
   </si>
   <si>
-    <t>: X IPA 1 (Example)</t>
+    <t>: X</t>
   </si>
   <si>
     <t>Mata Pelajaran</t>
   </si>
   <si>
-    <t>: Matematika (Example)</t>
+    <t>: Matematika</t>
   </si>
   <si>
     <t>NISN</t>
